--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.13520333333333</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H2">
-        <v>33.40561</v>
+        <v>26.489402</v>
       </c>
       <c r="I2">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J2">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>1055.615616854703</v>
+        <v>1561.595256337265</v>
       </c>
       <c r="R2">
-        <v>9500.540551692329</v>
+        <v>14054.35730703539</v>
       </c>
       <c r="S2">
-        <v>0.007291095639331756</v>
+        <v>0.01233555237805005</v>
       </c>
       <c r="T2">
-        <v>0.007291095639331757</v>
+        <v>0.01233555237805005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.13520333333333</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H3">
-        <v>33.40561</v>
+        <v>26.489402</v>
       </c>
       <c r="I3">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J3">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>1621.746187037076</v>
+        <v>1285.984201168375</v>
       </c>
       <c r="R3">
-        <v>14595.71568333368</v>
+        <v>11573.85781051538</v>
       </c>
       <c r="S3">
-        <v>0.01120133727051183</v>
+        <v>0.01015841038609768</v>
       </c>
       <c r="T3">
-        <v>0.01120133727051183</v>
+        <v>0.01015841038609768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.13520333333333</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H4">
-        <v>33.40561</v>
+        <v>26.489402</v>
       </c>
       <c r="I4">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J4">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>810.3752311540356</v>
+        <v>741.9250017274089</v>
       </c>
       <c r="R4">
-        <v>7293.377080386321</v>
+        <v>6677.32501554668</v>
       </c>
       <c r="S4">
-        <v>0.00559722991944227</v>
+        <v>0.005860708581338516</v>
       </c>
       <c r="T4">
-        <v>0.00559722991944227</v>
+        <v>0.005860708581338516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.13520333333333</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H5">
-        <v>33.40561</v>
+        <v>26.489402</v>
       </c>
       <c r="I5">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J5">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>1289.856207006306</v>
+        <v>749.9041600007173</v>
       </c>
       <c r="R5">
-        <v>11608.70586305675</v>
+        <v>6749.137440006455</v>
       </c>
       <c r="S5">
-        <v>0.008908986203036744</v>
+        <v>0.005923738565845519</v>
       </c>
       <c r="T5">
-        <v>0.008908986203036746</v>
+        <v>0.005923738565845519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.13520333333333</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H6">
-        <v>33.40561</v>
+        <v>26.489402</v>
       </c>
       <c r="I6">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J6">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>647.9228069434866</v>
+        <v>564.8513874192824</v>
       </c>
       <c r="R6">
-        <v>5831.30526249138</v>
+        <v>5083.662486773543</v>
       </c>
       <c r="S6">
-        <v>0.004475177400657455</v>
+        <v>0.00446194610738491</v>
       </c>
       <c r="T6">
-        <v>0.004475177400657455</v>
+        <v>0.00446194610738491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.13520333333333</v>
+        <v>8.829800666666667</v>
       </c>
       <c r="H7">
-        <v>33.40561</v>
+        <v>26.489402</v>
       </c>
       <c r="I7">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="J7">
-        <v>0.04334871314476626</v>
+        <v>0.04620557722733458</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>850.574792457678</v>
+        <v>945.0451564398319</v>
       </c>
       <c r="R7">
-        <v>7655.173132119102</v>
+        <v>8505.406407958488</v>
       </c>
       <c r="S7">
-        <v>0.005874886711786199</v>
+        <v>0.007465221208617897</v>
       </c>
       <c r="T7">
-        <v>0.0058748867117862</v>
+        <v>0.007465221208617897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>173.869492</v>
       </c>
       <c r="I8">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J8">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>5494.267311681897</v>
+        <v>10249.90197698574</v>
       </c>
       <c r="R8">
-        <v>49448.40580513707</v>
+        <v>92249.11779287166</v>
       </c>
       <c r="S8">
-        <v>0.03794868870629896</v>
+        <v>0.08096733272842303</v>
       </c>
       <c r="T8">
-        <v>0.03794868870629897</v>
+        <v>0.08096733272842303</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>173.869492</v>
       </c>
       <c r="I9">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J9">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>8440.8632470137</v>
@@ -1013,10 +1013,10 @@
         <v>75967.76922312329</v>
       </c>
       <c r="S9">
-        <v>0.05830071119624992</v>
+        <v>0.06667714331030682</v>
       </c>
       <c r="T9">
-        <v>0.05830071119624993</v>
+        <v>0.06667714331030682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>173.869492</v>
       </c>
       <c r="I10">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J10">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>4217.840349873411</v>
+        <v>4869.801256836365</v>
       </c>
       <c r="R10">
-        <v>37960.5631488607</v>
+        <v>43828.21131152728</v>
       </c>
       <c r="S10">
-        <v>0.02913245777283002</v>
+        <v>0.03846815506810491</v>
       </c>
       <c r="T10">
-        <v>0.02913245777283002</v>
+        <v>0.03846815506810491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>173.869492</v>
       </c>
       <c r="I11">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J11">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>6713.442546483457</v>
+        <v>4922.174360448433</v>
       </c>
       <c r="R11">
-        <v>60420.9829183511</v>
+        <v>44299.56924403589</v>
       </c>
       <c r="S11">
-        <v>0.0463694842081018</v>
+        <v>0.03888186736659321</v>
       </c>
       <c r="T11">
-        <v>0.0463694842081018</v>
+        <v>0.03888186736659321</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>173.869492</v>
       </c>
       <c r="I12">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J12">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>3372.308103293971</v>
+        <v>3707.53646254777</v>
       </c>
       <c r="R12">
-        <v>30350.77292964574</v>
+        <v>33367.82816292993</v>
       </c>
       <c r="S12">
-        <v>0.02329239972753655</v>
+        <v>0.02928704479710006</v>
       </c>
       <c r="T12">
-        <v>0.02329239972753655</v>
+        <v>0.02928704479710006</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>173.869492</v>
       </c>
       <c r="I13">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="J13">
-        <v>0.225621347232822</v>
+        <v>0.3032812986900735</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>4427.070994142058</v>
+        <v>6203.028715682373</v>
       </c>
       <c r="R13">
-        <v>39843.63894727853</v>
+        <v>55827.25844114136</v>
       </c>
       <c r="S13">
-        <v>0.03057760562180474</v>
+        <v>0.04899975541954552</v>
       </c>
       <c r="T13">
-        <v>0.03057760562180475</v>
+        <v>0.04899975541954552</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>55.64567566666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H14">
-        <v>166.937027</v>
+        <v>49.460101</v>
       </c>
       <c r="I14">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J14">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>5275.201761994325</v>
+        <v>2915.756992157166</v>
       </c>
       <c r="R14">
-        <v>47476.81585794892</v>
+        <v>26241.81292941449</v>
       </c>
       <c r="S14">
-        <v>0.03643561155155399</v>
+        <v>0.02303251943962895</v>
       </c>
       <c r="T14">
-        <v>0.036435611551554</v>
+        <v>0.02303251943962894</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>55.64567566666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H15">
-        <v>166.937027</v>
+        <v>49.460101</v>
       </c>
       <c r="I15">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J15">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>8104.312030600708</v>
+        <v>2401.145502423654</v>
       </c>
       <c r="R15">
-        <v>72938.80827540638</v>
+        <v>21610.30952181289</v>
       </c>
       <c r="S15">
-        <v>0.05597616515200709</v>
+        <v>0.01896743473846033</v>
       </c>
       <c r="T15">
-        <v>0.0559761651520071</v>
+        <v>0.01896743473846032</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>55.64567566666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H16">
-        <v>166.937027</v>
+        <v>49.460101</v>
       </c>
       <c r="I16">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J16">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>4049.66806004418</v>
+        <v>1385.296864001038</v>
       </c>
       <c r="R16">
-        <v>36447.01254039763</v>
+        <v>12467.67177600934</v>
       </c>
       <c r="S16">
-        <v>0.02797089836668578</v>
+        <v>0.01094291363635048</v>
       </c>
       <c r="T16">
-        <v>0.02797089836668578</v>
+        <v>0.01094291363635048</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.64567566666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H17">
-        <v>166.937027</v>
+        <v>49.460101</v>
       </c>
       <c r="I17">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J17">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>6445.76645824247</v>
+        <v>1400.195274093226</v>
       </c>
       <c r="R17">
-        <v>58011.89812418223</v>
+        <v>12601.75746683903</v>
       </c>
       <c r="S17">
-        <v>0.04452065597122676</v>
+        <v>0.01106060105714408</v>
       </c>
       <c r="T17">
-        <v>0.04452065597122676</v>
+        <v>0.01106060105714408</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>55.64567566666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H18">
-        <v>166.937027</v>
+        <v>49.460101</v>
       </c>
       <c r="I18">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J18">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>3237.848586409307</v>
+        <v>1054.671097208908</v>
       </c>
       <c r="R18">
-        <v>29140.63727768376</v>
+        <v>9492.039874880171</v>
       </c>
       <c r="S18">
-        <v>0.02236369312110581</v>
+        <v>0.008331192419059311</v>
       </c>
       <c r="T18">
-        <v>0.02236369312110581</v>
+        <v>0.008331192419059309</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>55.64567566666667</v>
+        <v>16.48670033333334</v>
       </c>
       <c r="H19">
-        <v>166.937027</v>
+        <v>49.460101</v>
       </c>
       <c r="I19">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914656</v>
       </c>
       <c r="J19">
-        <v>0.216625449936795</v>
+        <v>0.08627346575914654</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>4250.556331527153</v>
+        <v>1764.555835842383</v>
       </c>
       <c r="R19">
-        <v>38255.00698374437</v>
+        <v>15881.00252258144</v>
       </c>
       <c r="S19">
-        <v>0.02935842577421558</v>
+        <v>0.01393880446850342</v>
       </c>
       <c r="T19">
-        <v>0.02935842577421559</v>
+        <v>0.01393880446850341</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.03536666666667</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H20">
-        <v>123.1061</v>
+        <v>46.277513</v>
       </c>
       <c r="I20">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J20">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>3890.146645730366</v>
+        <v>2728.138021986533</v>
       </c>
       <c r="R20">
-        <v>35011.3198115733</v>
+        <v>24553.2421978788</v>
       </c>
       <c r="S20">
-        <v>0.02686909021823397</v>
+        <v>0.02155045574593916</v>
       </c>
       <c r="T20">
-        <v>0.02686909021823398</v>
+        <v>0.02155045574593916</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.03536666666667</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H21">
-        <v>123.1061</v>
+        <v>46.277513</v>
       </c>
       <c r="I21">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J21">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>5976.446718859644</v>
+        <v>2246.640018048127</v>
       </c>
       <c r="R21">
-        <v>53788.0204697368</v>
+        <v>20219.76016243314</v>
       </c>
       <c r="S21">
-        <v>0.04127908294916201</v>
+        <v>0.01774694531427967</v>
       </c>
       <c r="T21">
-        <v>0.04127908294916203</v>
+        <v>0.01774694531427967</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.03536666666667</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H22">
-        <v>123.1061</v>
+        <v>46.277513</v>
       </c>
       <c r="I22">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J22">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>2986.388640829245</v>
+        <v>1296.157758203269</v>
       </c>
       <c r="R22">
-        <v>26877.4977674632</v>
+        <v>11665.41982382942</v>
       </c>
       <c r="S22">
-        <v>0.020626869145208</v>
+        <v>0.01023877464512429</v>
       </c>
       <c r="T22">
-        <v>0.020626869145208</v>
+        <v>0.01023877464512429</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.03536666666667</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H23">
-        <v>123.1061</v>
+        <v>46.277513</v>
       </c>
       <c r="I23">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J23">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>4753.368287701945</v>
+        <v>1310.09750666275</v>
       </c>
       <c r="R23">
-        <v>42780.3145893175</v>
+        <v>11790.87755996475</v>
       </c>
       <c r="S23">
-        <v>0.03283132822330326</v>
+        <v>0.01034888928370362</v>
       </c>
       <c r="T23">
-        <v>0.03283132822330326</v>
+        <v>0.01034888928370362</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.03536666666667</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H24">
-        <v>123.1061</v>
+        <v>46.277513</v>
       </c>
       <c r="I24">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J24">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>2387.720202201533</v>
+        <v>986.8066264524914</v>
       </c>
       <c r="R24">
-        <v>21489.4818198138</v>
+        <v>8881.259638072423</v>
       </c>
       <c r="S24">
-        <v>0.01649188973358297</v>
+        <v>0.00779510873781917</v>
       </c>
       <c r="T24">
-        <v>0.01649188973358297</v>
+        <v>0.00779510873781917</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.03536666666667</v>
+        <v>15.42583766666667</v>
       </c>
       <c r="H25">
-        <v>123.1061</v>
+        <v>46.277513</v>
       </c>
       <c r="I25">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="J25">
-        <v>0.1597483481149097</v>
+        <v>0.08072206389598677</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>3134.531758521222</v>
+        <v>1651.012714923929</v>
       </c>
       <c r="R25">
-        <v>28210.785826691</v>
+        <v>14859.11443431536</v>
       </c>
       <c r="S25">
-        <v>0.02165008784541947</v>
+        <v>0.01304189016912086</v>
       </c>
       <c r="T25">
-        <v>0.02165008784541947</v>
+        <v>0.01304189016912086</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.42032266666666</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H26">
-        <v>91.26096799999999</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I26">
-        <v>0.1184245856652727</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J26">
-        <v>0.1184245856652728</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>2883.842056171922</v>
+        <v>4362.447133689</v>
       </c>
       <c r="R26">
-        <v>25954.5785055473</v>
+        <v>39262.024203201</v>
       </c>
       <c r="S26">
-        <v>0.01991858390928933</v>
+        <v>0.03446039868250771</v>
       </c>
       <c r="T26">
-        <v>0.01991858390928933</v>
+        <v>0.03446039868250771</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>30.42032266666666</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H27">
-        <v>91.26096799999999</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I27">
-        <v>0.1184245856652727</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J27">
-        <v>0.1184245856652728</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>4430.457245933019</v>
+        <v>3592.50456838266</v>
       </c>
       <c r="R27">
-        <v>39874.11521339718</v>
+        <v>32332.54111544395</v>
       </c>
       <c r="S27">
-        <v>0.0306009943300358</v>
+        <v>0.02837837019024434</v>
       </c>
       <c r="T27">
-        <v>0.03060099433003581</v>
+        <v>0.02837837019024434</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>30.42032266666666</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H28">
-        <v>91.26096799999999</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I28">
-        <v>0.1184245856652727</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J28">
-        <v>0.1184245856652728</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>2213.868510059868</v>
+        <v>2072.629629260936</v>
       </c>
       <c r="R28">
-        <v>19924.81659053881</v>
+        <v>18653.66666334842</v>
       </c>
       <c r="S28">
-        <v>0.01529110291854762</v>
+        <v>0.01637238026197289</v>
       </c>
       <c r="T28">
-        <v>0.01529110291854762</v>
+        <v>0.01637238026197289</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>30.42032266666666</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H29">
-        <v>91.26096799999999</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I29">
-        <v>0.1184245856652727</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J29">
-        <v>0.1184245856652728</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>3523.765200881044</v>
+        <v>2094.920076159634</v>
       </c>
       <c r="R29">
-        <v>31713.8868079294</v>
+        <v>18854.2806854367</v>
       </c>
       <c r="S29">
-        <v>0.02433850795683053</v>
+        <v>0.01654845980251528</v>
       </c>
       <c r="T29">
-        <v>0.02433850795683054</v>
+        <v>0.01654845980251528</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>30.42032266666666</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H30">
-        <v>91.26096799999999</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I30">
-        <v>0.1184245856652727</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J30">
-        <v>0.1184245856652728</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>1770.063847088549</v>
+        <v>1577.959657604975</v>
       </c>
       <c r="R30">
-        <v>15930.57462379694</v>
+        <v>14201.63691844477</v>
       </c>
       <c r="S30">
-        <v>0.01222576152795064</v>
+        <v>0.01246482014327543</v>
       </c>
       <c r="T30">
-        <v>0.01222576152795064</v>
+        <v>0.01246482014327543</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>30.42032266666666</v>
+        <v>24.66678766666667</v>
       </c>
       <c r="H31">
-        <v>91.26096799999999</v>
+        <v>74.00036300000001</v>
       </c>
       <c r="I31">
-        <v>0.1184245856652727</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="J31">
-        <v>0.1184245856652728</v>
+        <v>0.1290791497462756</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>2323.689910649342</v>
+        <v>2640.062792959212</v>
       </c>
       <c r="R31">
-        <v>20913.20919584408</v>
+        <v>23760.56513663291</v>
       </c>
       <c r="S31">
-        <v>0.01604963502261882</v>
+        <v>0.02085472066575996</v>
       </c>
       <c r="T31">
-        <v>0.01604963502261882</v>
+        <v>0.02085472066575996</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>60.68199533333333</v>
+        <v>67.73253366666667</v>
       </c>
       <c r="H32">
-        <v>182.045986</v>
+        <v>203.197601</v>
       </c>
       <c r="I32">
-        <v>0.2362315559054342</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="J32">
-        <v>0.2362315559054343</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>5752.644115982695</v>
+        <v>11978.84383425161</v>
       </c>
       <c r="R32">
-        <v>51773.79704384425</v>
+        <v>107809.5945082645</v>
       </c>
       <c r="S32">
-        <v>0.0397332871539376</v>
+        <v>0.09462481071598429</v>
       </c>
       <c r="T32">
-        <v>0.03973328715393762</v>
+        <v>0.09462481071598429</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>60.68199533333333</v>
+        <v>67.73253366666667</v>
       </c>
       <c r="H33">
-        <v>182.045986</v>
+        <v>203.197601</v>
       </c>
       <c r="I33">
-        <v>0.2362315559054342</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="J33">
-        <v>0.2362315559054343</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>8837.808489678973</v>
+        <v>9864.658500079209</v>
       </c>
       <c r="R33">
-        <v>79540.27640711077</v>
+        <v>88781.9265007129</v>
       </c>
       <c r="S33">
-        <v>0.06104239640973101</v>
+        <v>0.07792416833073593</v>
       </c>
       <c r="T33">
-        <v>0.06104239640973103</v>
+        <v>0.07792416833073593</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>60.68199533333333</v>
+        <v>67.73253366666667</v>
       </c>
       <c r="H34">
-        <v>182.045986</v>
+        <v>203.197601</v>
       </c>
       <c r="I34">
-        <v>0.2362315559054342</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="J34">
-        <v>0.2362315559054343</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>4416.19111237347</v>
+        <v>5691.233817695483</v>
       </c>
       <c r="R34">
-        <v>39745.72001136123</v>
+        <v>51221.10435925935</v>
       </c>
       <c r="S34">
-        <v>0.03050245870539614</v>
+        <v>0.04495691989906377</v>
       </c>
       <c r="T34">
-        <v>0.03050245870539615</v>
+        <v>0.04495691989906377</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>60.68199533333333</v>
+        <v>67.73253366666667</v>
       </c>
       <c r="H35">
-        <v>182.045986</v>
+        <v>203.197601</v>
       </c>
       <c r="I35">
-        <v>0.2362315559054342</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="J35">
-        <v>0.2362315559054343</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>7029.153037549172</v>
+        <v>5752.441157111282</v>
       </c>
       <c r="R35">
-        <v>63262.37733794255</v>
+        <v>51771.97041400154</v>
       </c>
       <c r="S35">
-        <v>0.04855008418023859</v>
+        <v>0.0454404167195239</v>
       </c>
       <c r="T35">
-        <v>0.0485500841802386</v>
+        <v>0.0454404167195239</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>60.68199533333333</v>
+        <v>67.73253366666667</v>
       </c>
       <c r="H36">
-        <v>182.045986</v>
+        <v>203.197601</v>
       </c>
       <c r="I36">
-        <v>0.2362315559054342</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="J36">
-        <v>0.2362315559054343</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>3530.896344713198</v>
+        <v>4332.919514193631</v>
       </c>
       <c r="R36">
-        <v>31778.06710241879</v>
+        <v>38996.27562774267</v>
       </c>
       <c r="S36">
-        <v>0.02438776248742661</v>
+        <v>0.03422715034533064</v>
       </c>
       <c r="T36">
-        <v>0.02438776248742662</v>
+        <v>0.03422715034533064</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>60.68199533333333</v>
+        <v>67.73253366666667</v>
       </c>
       <c r="H37">
-        <v>182.045986</v>
+        <v>203.197601</v>
       </c>
       <c r="I37">
-        <v>0.2362315559054342</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="J37">
-        <v>0.2362315559054343</v>
+        <v>0.354438444681183</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>4635.261166004851</v>
+        <v>7249.348574393772</v>
       </c>
       <c r="R37">
-        <v>41717.35049404366</v>
+        <v>65244.13716954395</v>
       </c>
       <c r="S37">
-        <v>0.03201556696870424</v>
+        <v>0.05726497867054444</v>
       </c>
       <c r="T37">
-        <v>0.03201556696870426</v>
+        <v>0.05726497867054444</v>
       </c>
     </row>
   </sheetData>
